--- a/Assets/Config/Excel/怪物配置.xlsx
+++ b/Assets/Config/Excel/怪物配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18020" windowHeight="8020"/>
+    <workbookView windowWidth="16250" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,9 @@
     <t>最大生命值</t>
   </si>
   <si>
+    <t>搜索玩家的距离</t>
+  </si>
+  <si>
     <t>攻击力</t>
   </si>
   <si>
@@ -50,9 +53,6 @@
   </si>
   <si>
     <t>最大巡逻时间</t>
-  </si>
-  <si>
-    <t>搜索玩家的距离</t>
   </si>
   <si>
     <t>Pig1</t>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1087,16 +1087,16 @@
         <v>100</v>
       </c>
       <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1113,16 +1113,16 @@
         <v>100</v>
       </c>
       <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>10</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1139,16 +1139,16 @@
         <v>80</v>
       </c>
       <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
         <v>15</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1165,16 +1165,16 @@
         <v>80</v>
       </c>
       <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
         <v>15</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>10</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1191,16 +1191,16 @@
         <v>120</v>
       </c>
       <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>8</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>6</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/怪物配置.xlsx
+++ b/Assets/Config/Excel/怪物配置.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Key</t>
   </si>
@@ -43,16 +43,19 @@
     <t>最大生命值</t>
   </si>
   <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>最大待机时间</t>
+  </si>
+  <si>
+    <t>最大巡逻时间</t>
+  </si>
+  <si>
     <t>搜索玩家的距离</t>
   </si>
   <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>最大待机时间</t>
-  </si>
-  <si>
-    <t>最大巡逻时间</t>
+    <t>追击时间</t>
   </si>
   <si>
     <t>Pig1</t>
@@ -1031,23 +1034,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="12.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="22.3636363636364" customWidth="1"/>
     <col min="4" max="4" width="17.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="15.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.0909090909091" customWidth="1"/>
+    <col min="7" max="7" width="15.9090909090909" customWidth="1"/>
+    <col min="8" max="8" width="15.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,135 +1076,153 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
       </c>
       <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="1">
-        <v>10</v>
+      <c r="I2" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
       </c>
       <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>10</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
-        <v>10</v>
+      <c r="I3" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>80</v>
       </c>
       <c r="E4" s="1">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
-        <v>15</v>
-      </c>
       <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="H4" s="1">
-        <v>10</v>
+      <c r="I4" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>80</v>
       </c>
       <c r="E5" s="1">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="1">
-        <v>15</v>
-      </c>
       <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
         <v>5</v>
       </c>
-      <c r="H5" s="1">
-        <v>10</v>
+      <c r="I5" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>120</v>
       </c>
       <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1">
-        <v>6</v>
+      <c r="I6" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/怪物配置.xlsx
+++ b/Assets/Config/Excel/怪物配置.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Key</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>追击时间</t>
+  </si>
+  <si>
+    <t>音效组</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
+    <t>攻击间隔</t>
   </si>
   <si>
     <t>Pig1</t>
@@ -1034,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1051,7 +1060,7 @@
     <col min="8" max="8" width="15.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,16 +1088,25 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -1108,16 +1126,25 @@
       <c r="I2" s="1">
         <v>5</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1.5</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -1137,16 +1164,25 @@
       <c r="I3" s="1">
         <v>5</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1.5</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>80</v>
@@ -1166,16 +1202,25 @@
       <c r="I4" s="1">
         <v>5</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1.5</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <v>80</v>
@@ -1195,16 +1240,25 @@
       <c r="I5" s="1">
         <v>5</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1.5</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>120</v>
@@ -1223,6 +1277,15 @@
       </c>
       <c r="I6" s="1">
         <v>4</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1.5</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Config/Excel/怪物配置.xlsx
+++ b/Assets/Config/Excel/怪物配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16250" windowHeight="8970"/>
+    <workbookView windowWidth="20220" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Key</t>
   </si>
@@ -110,6 +110,123 @@
   </si>
   <si>
     <t>Fiery Tampora</t>
+  </si>
+  <si>
+    <t>Tampora2</t>
+  </si>
+  <si>
+    <t>荷包蛋仔</t>
+  </si>
+  <si>
+    <t>Fiery Omelette</t>
+  </si>
+  <si>
+    <t>Tampora3</t>
+  </si>
+  <si>
+    <t>灰烬桩仔</t>
+  </si>
+  <si>
+    <t>Ember Tampora</t>
+  </si>
+  <si>
+    <t>Golem1</t>
+  </si>
+  <si>
+    <t>黄石巨人</t>
+  </si>
+  <si>
+    <t>Yellow Golem</t>
+  </si>
+  <si>
+    <t>Golem2</t>
+  </si>
+  <si>
+    <t>炎石巨人</t>
+  </si>
+  <si>
+    <t>Fiery Golem</t>
+  </si>
+  <si>
+    <t>Golem3</t>
+  </si>
+  <si>
+    <t>紫颜巨人</t>
+  </si>
+  <si>
+    <t>Purple Golem</t>
+  </si>
+  <si>
+    <t>Gazer1</t>
+  </si>
+  <si>
+    <t>凝视者</t>
+  </si>
+  <si>
+    <t>Gazer</t>
+  </si>
+  <si>
+    <t>Gazer2</t>
+  </si>
+  <si>
+    <t>狂躁凝视者</t>
+  </si>
+  <si>
+    <t>Mania Gazer</t>
+  </si>
+  <si>
+    <t>Gazer3</t>
+  </si>
+  <si>
+    <t>灰烬凝视者</t>
+  </si>
+  <si>
+    <t>Ember Gazer</t>
+  </si>
+  <si>
+    <t>Butterfly1</t>
+  </si>
+  <si>
+    <t>火蝴蝶</t>
+  </si>
+  <si>
+    <t>Fiery Butterfly</t>
+  </si>
+  <si>
+    <t>Butterfly2</t>
+  </si>
+  <si>
+    <t>恶魔蝴蝶</t>
+  </si>
+  <si>
+    <t>Evil Butterfly</t>
+  </si>
+  <si>
+    <t>Butterfly3</t>
+  </si>
+  <si>
+    <t>火小鸡</t>
+  </si>
+  <si>
+    <t>Fiery Chick</t>
+  </si>
+  <si>
+    <t>Butterfly4</t>
+  </si>
+  <si>
+    <t>恶魔小鸡</t>
+  </si>
+  <si>
+    <t>Evil Chick</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>炎魔</t>
+  </si>
+  <si>
+    <t>Flame Demon</t>
   </si>
 </sst>
 </file>
@@ -1043,13 +1160,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="12.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="22.3636363636364" customWidth="1"/>
@@ -1278,13 +1395,507 @@
       <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>1.5</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>150</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1">
+        <v>125</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1">
+        <v>500</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1">
         <v>2</v>
       </c>
     </row>
